--- a/project/CV/CV_93.xlsx
+++ b/project/CV/CV_93.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,2809 +498,3394 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adams</t>
+          <t>aitkin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>159029</v>
+        <v>99416</v>
       </c>
       <c r="D2" t="n">
-        <v>1596</v>
+        <v>2916</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>55001</v>
+        <v>27001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.163</v>
+        <v>0.187</v>
       </c>
       <c r="H2" t="n">
-        <v>0.189</v>
+        <v>0.115</v>
       </c>
       <c r="I2" t="n">
-        <v>0.227</v>
+        <v>0.075</v>
       </c>
       <c r="J2" t="n">
-        <v>0.213</v>
+        <v>0.247</v>
       </c>
       <c r="K2" t="n">
-        <v>0.208</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ashland</t>
+          <t>anoka</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>104328</v>
+        <v>3338855</v>
       </c>
       <c r="D3" t="n">
-        <v>1416</v>
+        <v>49272</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>55003</v>
+        <v>27003</v>
       </c>
       <c r="G3" t="n">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.078</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.038</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.118</v>
+        <v>0.132</v>
       </c>
       <c r="J3" t="n">
-        <v>0.363</v>
+        <v>0.245</v>
       </c>
       <c r="K3" t="n">
-        <v>0.403</v>
+        <v>0.4920000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>barron</t>
+          <t>becker</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>476541</v>
+        <v>271376</v>
       </c>
       <c r="D4" t="n">
-        <v>5605</v>
+        <v>2934</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>55005</v>
+        <v>27005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.138</v>
+        <v>0.052</v>
       </c>
       <c r="H4" t="n">
-        <v>0.163</v>
+        <v>0.28</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.259</v>
+        <v>0.24</v>
       </c>
       <c r="K4" t="n">
-        <v>0.37</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bayfield</t>
+          <t>beltrami</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97307</v>
+        <v>307511</v>
       </c>
       <c r="D5" t="n">
-        <v>1655</v>
+        <v>3622</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>55007</v>
+        <v>27007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.067</v>
+        <v>0.094</v>
       </c>
       <c r="H5" t="n">
-        <v>0.039</v>
+        <v>0.155</v>
       </c>
       <c r="I5" t="n">
-        <v>0.107</v>
+        <v>0.225</v>
       </c>
       <c r="J5" t="n">
-        <v>0.392</v>
+        <v>0.185</v>
       </c>
       <c r="K5" t="n">
-        <v>0.395</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>benton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3727024</v>
+        <v>421216</v>
       </c>
       <c r="D6" t="n">
-        <v>26697</v>
+        <v>7268</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>55009</v>
+        <v>27009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.053</v>
+        <v>0.139</v>
       </c>
       <c r="I6" t="n">
-        <v>0.184</v>
+        <v>0.209</v>
       </c>
       <c r="J6" t="n">
-        <v>0.208</v>
+        <v>0.147</v>
       </c>
       <c r="K6" t="n">
-        <v>0.486</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>buffalo</t>
+          <t>big stone</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>111334</v>
+        <v>46867</v>
       </c>
       <c r="D7" t="n">
-        <v>953</v>
+        <v>245</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>55011</v>
+        <v>27011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.039</v>
+        <v>0.256</v>
       </c>
       <c r="H7" t="n">
-        <v>0.106</v>
+        <v>0.121</v>
       </c>
       <c r="I7" t="n">
-        <v>0.172</v>
+        <v>0.185</v>
       </c>
       <c r="J7" t="n">
-        <v>0.269</v>
+        <v>0.146</v>
       </c>
       <c r="K7" t="n">
-        <v>0.414</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>burnett</t>
+          <t>blue earth</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>112807</v>
+        <v>638692</v>
       </c>
       <c r="D8" t="n">
-        <v>2049</v>
+        <v>3064</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>55013</v>
+        <v>27013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.097</v>
+        <v>0.065</v>
       </c>
       <c r="H8" t="n">
-        <v>0.163</v>
+        <v>0.078</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.146</v>
       </c>
       <c r="J8" t="n">
-        <v>0.236</v>
+        <v>0.276</v>
       </c>
       <c r="K8" t="n">
-        <v>0.422</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>calumet</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>606806</v>
+        <v>194774</v>
       </c>
       <c r="D9" t="n">
-        <v>3907</v>
+        <v>2821</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>55015</v>
+        <v>27015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.064</v>
+        <v>0.101</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1</v>
+        <v>0.061</v>
       </c>
       <c r="I9" t="n">
-        <v>0.141</v>
+        <v>0.251</v>
       </c>
       <c r="J9" t="n">
-        <v>0.33</v>
+        <v>0.265</v>
       </c>
       <c r="K9" t="n">
-        <v>0.365</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>chippewa</t>
+          <t>carlton</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>630726</v>
+        <v>261446</v>
       </c>
       <c r="D10" t="n">
-        <v>6656</v>
+        <v>3000</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>55017</v>
+        <v>27017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="H10" t="n">
-        <v>0.098</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.184</v>
+        <v>0.09</v>
       </c>
       <c r="J10" t="n">
-        <v>0.246</v>
+        <v>0.329</v>
       </c>
       <c r="K10" t="n">
-        <v>0.414</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>clark</t>
+          <t>carver</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>328596</v>
+        <v>727230</v>
       </c>
       <c r="D11" t="n">
-        <v>6343</v>
+        <v>3312</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>55019</v>
+        <v>27019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.162</v>
+        <v>0.024</v>
       </c>
       <c r="H11" t="n">
-        <v>0.149</v>
+        <v>0.128</v>
       </c>
       <c r="I11" t="n">
-        <v>0.158</v>
+        <v>0.183</v>
       </c>
       <c r="J11" t="n">
-        <v>0.146</v>
+        <v>0.296</v>
       </c>
       <c r="K11" t="n">
-        <v>0.384</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>columbia</t>
+          <t>cass</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>505982</v>
+        <v>188970</v>
       </c>
       <c r="D12" t="n">
-        <v>3351</v>
+        <v>2158</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>55021</v>
+        <v>27021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.035</v>
+        <v>0.105</v>
       </c>
       <c r="H12" t="n">
-        <v>0.073</v>
+        <v>0.127</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="J12" t="n">
-        <v>0.222</v>
+        <v>0.235</v>
       </c>
       <c r="K12" t="n">
-        <v>0.589</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>crawford</t>
+          <t>chippewa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>158551</v>
+        <v>137573</v>
       </c>
       <c r="D13" t="n">
-        <v>1067</v>
+        <v>2307</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>55023</v>
+        <v>27023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.202</v>
+        <v>0.108</v>
       </c>
       <c r="H13" t="n">
-        <v>0.033</v>
+        <v>0.106</v>
       </c>
       <c r="I13" t="n">
-        <v>0.11</v>
+        <v>0.244</v>
       </c>
       <c r="J13" t="n">
-        <v>0.158</v>
+        <v>0.224</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4970000000000001</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dane</t>
+          <t>chisago</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4261430</v>
+        <v>432590</v>
       </c>
       <c r="D14" t="n">
-        <v>24012</v>
+        <v>2603</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>55025</v>
+        <v>27025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.017</v>
+        <v>0.064</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02</v>
+        <v>0.104</v>
       </c>
       <c r="I14" t="n">
-        <v>0.092</v>
+        <v>0.165</v>
       </c>
       <c r="J14" t="n">
-        <v>0.23</v>
+        <v>0.253</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6409999999999999</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dodge</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1231153</v>
+        <v>741147</v>
       </c>
       <c r="D15" t="n">
-        <v>13192</v>
+        <v>13810</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>55027</v>
+        <v>27027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.11</v>
+        <v>0.092</v>
       </c>
       <c r="H15" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.138</v>
       </c>
-      <c r="I15" t="n">
-        <v>0.166</v>
-      </c>
       <c r="J15" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="K15" t="n">
-        <v>0.386</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>clearwater</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>244065</v>
+        <v>62277</v>
       </c>
       <c r="D16" t="n">
-        <v>2199</v>
+        <v>1062</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>55029</v>
+        <v>27029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.021</v>
+        <v>0.065</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="I16" t="n">
-        <v>0.059</v>
+        <v>0.203</v>
       </c>
       <c r="J16" t="n">
-        <v>0.264</v>
+        <v>0.172</v>
       </c>
       <c r="K16" t="n">
-        <v>0.627</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>douglas</t>
+          <t>cook</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>346297</v>
+        <v>9949</v>
       </c>
       <c r="D17" t="n">
-        <v>2112</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>55031</v>
+        <v>27031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.044</v>
+        <v>0.184</v>
       </c>
       <c r="H17" t="n">
-        <v>0.042</v>
+        <v>0.02</v>
       </c>
       <c r="I17" t="n">
-        <v>0.092</v>
+        <v>0.038</v>
       </c>
       <c r="J17" t="n">
-        <v>0.327</v>
+        <v>0.257</v>
       </c>
       <c r="K17" t="n">
-        <v>0.495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dunn</t>
+          <t>cottonwood</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>394661</v>
+        <v>135734</v>
       </c>
       <c r="D18" t="n">
-        <v>1850</v>
+        <v>1047</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>55033</v>
+        <v>27033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.062</v>
+        <v>0.2160000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.076</v>
+        <v>0.045</v>
       </c>
       <c r="I18" t="n">
-        <v>0.179</v>
+        <v>0.262</v>
       </c>
       <c r="J18" t="n">
-        <v>0.266</v>
+        <v>0.215</v>
       </c>
       <c r="K18" t="n">
-        <v>0.417</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>eau claire</t>
+          <t>crow wing</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1070374</v>
+        <v>467832</v>
       </c>
       <c r="D19" t="n">
-        <v>8844</v>
+        <v>7783</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>55035</v>
+        <v>27035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.042</v>
+        <v>0.147</v>
       </c>
       <c r="H19" t="n">
-        <v>0.076</v>
+        <v>0.112</v>
       </c>
       <c r="I19" t="n">
-        <v>0.203</v>
+        <v>0.081</v>
       </c>
       <c r="J19" t="n">
-        <v>0.255</v>
+        <v>0.249</v>
       </c>
       <c r="K19" t="n">
-        <v>0.424</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>florence</t>
+          <t>dakota</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>47693</v>
+        <v>3555744</v>
       </c>
       <c r="D20" t="n">
-        <v>1330</v>
+        <v>44045</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>55037</v>
+        <v>27037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.053</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.073</v>
+        <v>0.076</v>
       </c>
       <c r="I20" t="n">
-        <v>0.143</v>
+        <v>0.129</v>
       </c>
       <c r="J20" t="n">
-        <v>0.238</v>
+        <v>0.236</v>
       </c>
       <c r="K20" t="n">
-        <v>0.494</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fond du lac</t>
+          <t>dodge</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1270474</v>
+        <v>137874</v>
       </c>
       <c r="D21" t="n">
-        <v>8580</v>
+        <v>245</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>55039</v>
+        <v>27039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.121</v>
+        <v>0.035</v>
       </c>
       <c r="H21" t="n">
-        <v>0.155</v>
+        <v>0.096</v>
       </c>
       <c r="I21" t="n">
-        <v>0.158</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>0.244</v>
+        <v>0.325</v>
       </c>
       <c r="K21" t="n">
-        <v>0.322</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>douglas</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>110347</v>
+        <v>344637</v>
       </c>
       <c r="D22" t="n">
-        <v>2891</v>
+        <v>5112</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>55041</v>
+        <v>27041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.099</v>
       </c>
       <c r="H22" t="n">
-        <v>0.053</v>
+        <v>0.178</v>
       </c>
       <c r="I22" t="n">
-        <v>0.162</v>
+        <v>0.148</v>
       </c>
       <c r="J22" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="K22" t="n">
-        <v>0.484</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>faribault</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>530227</v>
+        <v>98251</v>
       </c>
       <c r="D23" t="n">
-        <v>10414</v>
+        <v>836</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>55043</v>
+        <v>27043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.103</v>
+        <v>0.078</v>
       </c>
       <c r="H23" t="n">
-        <v>0.102</v>
+        <v>0.158</v>
       </c>
       <c r="I23" t="n">
-        <v>0.18</v>
+        <v>0.163</v>
       </c>
       <c r="J23" t="n">
-        <v>0.166</v>
+        <v>0.261</v>
       </c>
       <c r="K23" t="n">
-        <v>0.449</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>fillmore</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>273291</v>
+        <v>111943</v>
       </c>
       <c r="D24" t="n">
-        <v>1397</v>
+        <v>297</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>55045</v>
+        <v>27045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.092</v>
+        <v>0.026</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.102</v>
       </c>
       <c r="I24" t="n">
-        <v>0.119</v>
+        <v>0.099</v>
       </c>
       <c r="J24" t="n">
-        <v>0.269</v>
+        <v>0.29</v>
       </c>
       <c r="K24" t="n">
-        <v>0.436</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>green lake</t>
+          <t>freeborn</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>195934</v>
+        <v>259094</v>
       </c>
       <c r="D25" t="n">
-        <v>1285</v>
+        <v>1729</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>55047</v>
+        <v>27047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.092</v>
+        <v>0.135</v>
       </c>
       <c r="H25" t="n">
-        <v>0.122</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>0.184</v>
+        <v>0.206</v>
       </c>
       <c r="J25" t="n">
-        <v>0.117</v>
+        <v>0.283</v>
       </c>
       <c r="K25" t="n">
-        <v>0.486</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>iowa</t>
+          <t>goodhue</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>180261</v>
+        <v>314235</v>
       </c>
       <c r="D26" t="n">
-        <v>732</v>
+        <v>5611</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>55049</v>
+        <v>27049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.065</v>
+        <v>0.03</v>
       </c>
       <c r="H26" t="n">
-        <v>0.077</v>
+        <v>0.039</v>
       </c>
       <c r="I26" t="n">
-        <v>0.092</v>
+        <v>0.138</v>
       </c>
       <c r="J26" t="n">
-        <v>0.333</v>
+        <v>0.28</v>
       </c>
       <c r="K26" t="n">
-        <v>0.433</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>iron</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>63784</v>
+        <v>42078</v>
       </c>
       <c r="D27" t="n">
-        <v>2653</v>
+        <v>1059</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>55051</v>
+        <v>27051</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="H27" t="n">
-        <v>0.052</v>
+        <v>0.137</v>
       </c>
       <c r="I27" t="n">
-        <v>0.142</v>
+        <v>0.193</v>
       </c>
       <c r="J27" t="n">
-        <v>0.248</v>
+        <v>0.165</v>
       </c>
       <c r="K27" t="n">
-        <v>0.518</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>jackson</t>
+          <t>hennepin</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>229219</v>
+        <v>11308343</v>
       </c>
       <c r="D28" t="n">
-        <v>1468</v>
+        <v>280333</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>55053</v>
+        <v>27053</v>
       </c>
       <c r="G28" t="n">
-        <v>0.027</v>
+        <v>0.021</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1</v>
+        <v>0.044</v>
       </c>
       <c r="I28" t="n">
-        <v>0.14</v>
+        <v>0.096</v>
       </c>
       <c r="J28" t="n">
-        <v>0.329</v>
+        <v>0.243</v>
       </c>
       <c r="K28" t="n">
-        <v>0.404</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jefferson</t>
+          <t>houston</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>835726</v>
+        <v>116602</v>
       </c>
       <c r="D29" t="n">
-        <v>6549</v>
+        <v>903</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>55055</v>
+        <v>27055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.114</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0.093</v>
+        <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>0.096</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>0.179</v>
+        <v>0.283</v>
       </c>
       <c r="K29" t="n">
-        <v>0.518</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>juneau</t>
+          <t>hubbard</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>273654</v>
+        <v>141236</v>
       </c>
       <c r="D30" t="n">
-        <v>1371</v>
+        <v>3173</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F30" t="n">
-        <v>55057</v>
+        <v>27057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.113</v>
+        <v>0.078</v>
       </c>
       <c r="H30" t="n">
-        <v>0.124</v>
+        <v>0.15</v>
       </c>
       <c r="I30" t="n">
-        <v>0.18</v>
+        <v>0.164</v>
       </c>
       <c r="J30" t="n">
-        <v>0.232</v>
+        <v>0.227</v>
       </c>
       <c r="K30" t="n">
-        <v>0.352</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>kenosha</t>
+          <t>isanti</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1774247</v>
+        <v>264611</v>
       </c>
       <c r="D31" t="n">
-        <v>30287</v>
+        <v>2972</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>55059</v>
+        <v>27059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.077</v>
+        <v>0.104</v>
       </c>
       <c r="H31" t="n">
-        <v>0.083</v>
+        <v>0.099</v>
       </c>
       <c r="I31" t="n">
-        <v>0.097</v>
+        <v>0.215</v>
       </c>
       <c r="J31" t="n">
-        <v>0.155</v>
+        <v>0.14</v>
       </c>
       <c r="K31" t="n">
-        <v>0.589</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>kewaunee</t>
+          <t>itasca</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>256760</v>
+        <v>276815</v>
       </c>
       <c r="D32" t="n">
-        <v>2602</v>
+        <v>5471</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>55061</v>
+        <v>27061</v>
       </c>
       <c r="G32" t="n">
-        <v>0.033</v>
+        <v>0.162</v>
       </c>
       <c r="H32" t="n">
-        <v>0.035</v>
+        <v>0.142</v>
       </c>
       <c r="I32" t="n">
-        <v>0.112</v>
+        <v>0.151</v>
       </c>
       <c r="J32" t="n">
-        <v>0.208</v>
+        <v>0.209</v>
       </c>
       <c r="K32" t="n">
-        <v>0.612</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>la crosse</t>
+          <t>jackson</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1249563</v>
+        <v>84851</v>
       </c>
       <c r="D33" t="n">
-        <v>5766</v>
+        <v>630</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>55063</v>
+        <v>27063</v>
       </c>
       <c r="G33" t="n">
-        <v>0.064</v>
+        <v>0.325</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.024</v>
       </c>
       <c r="I33" t="n">
-        <v>0.076</v>
+        <v>0.14</v>
       </c>
       <c r="J33" t="n">
-        <v>0.289</v>
+        <v>0.171</v>
       </c>
       <c r="K33" t="n">
-        <v>0.498</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>lafayette</t>
+          <t>kanabec</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>158659</v>
+        <v>92059</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>2305</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>55065</v>
+        <v>27065</v>
       </c>
       <c r="G34" t="n">
-        <v>0.056</v>
+        <v>0.223</v>
       </c>
       <c r="H34" t="n">
-        <v>0.098</v>
+        <v>0.148</v>
       </c>
       <c r="I34" t="n">
-        <v>0.197</v>
+        <v>0.137</v>
       </c>
       <c r="J34" t="n">
-        <v>0.253</v>
+        <v>0.146</v>
       </c>
       <c r="K34" t="n">
-        <v>0.396</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>langlade</t>
+          <t>kandiyohi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>210215</v>
+        <v>622159</v>
       </c>
       <c r="D35" t="n">
-        <v>4026</v>
+        <v>5142</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F35" t="n">
-        <v>55067</v>
+        <v>27067</v>
       </c>
       <c r="G35" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="H35" t="n">
-        <v>0.102</v>
+        <v>0.107</v>
       </c>
       <c r="I35" t="n">
-        <v>0.142</v>
+        <v>0.182</v>
       </c>
       <c r="J35" t="n">
-        <v>0.239</v>
+        <v>0.29</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4320000000000001</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>kittson</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>270022</v>
+        <v>31308</v>
       </c>
       <c r="D36" t="n">
-        <v>5371</v>
+        <v>1377</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F36" t="n">
-        <v>55069</v>
+        <v>27069</v>
       </c>
       <c r="G36" t="n">
-        <v>0.101</v>
+        <v>0.068</v>
       </c>
       <c r="H36" t="n">
-        <v>0.105</v>
+        <v>0.168</v>
       </c>
       <c r="I36" t="n">
-        <v>0.132</v>
+        <v>0.221</v>
       </c>
       <c r="J36" t="n">
-        <v>0.204</v>
+        <v>0.251</v>
       </c>
       <c r="K36" t="n">
-        <v>0.459</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>manitowoc</t>
+          <t>koochiching</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>782194</v>
+        <v>60862</v>
       </c>
       <c r="D37" t="n">
-        <v>5931</v>
+        <v>1184</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F37" t="n">
-        <v>55071</v>
+        <v>27071</v>
       </c>
       <c r="G37" t="n">
-        <v>0.175</v>
+        <v>0.159</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08900000000000001</v>
+        <v>0.183</v>
       </c>
       <c r="I37" t="n">
-        <v>0.259</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>0.133</v>
+        <v>0.255</v>
       </c>
       <c r="K37" t="n">
-        <v>0.345</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>marathon</t>
+          <t>lac qui parle</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1410480</v>
+        <v>57036</v>
       </c>
       <c r="D38" t="n">
-        <v>18650</v>
+        <v>1134</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F38" t="n">
-        <v>55073</v>
+        <v>27073</v>
       </c>
       <c r="G38" t="n">
-        <v>0.123</v>
+        <v>0.184</v>
       </c>
       <c r="H38" t="n">
-        <v>0.136</v>
+        <v>0.096</v>
       </c>
       <c r="I38" t="n">
-        <v>0.165</v>
+        <v>0.248</v>
       </c>
       <c r="J38" t="n">
-        <v>0.236</v>
+        <v>0.179</v>
       </c>
       <c r="K38" t="n">
-        <v>0.34</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>marinette</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>460484</v>
+        <v>56556</v>
       </c>
       <c r="D39" t="n">
-        <v>5177</v>
+        <v>1086</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F39" t="n">
-        <v>55075</v>
+        <v>27075</v>
       </c>
       <c r="G39" t="n">
-        <v>0.093</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0.104</v>
+        <v>0.033</v>
       </c>
       <c r="I39" t="n">
-        <v>0.066</v>
+        <v>0.075</v>
       </c>
       <c r="J39" t="n">
-        <v>0.258</v>
+        <v>0.341</v>
       </c>
       <c r="K39" t="n">
-        <v>0.479</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>marquette</t>
+          <t>lake of the woods</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>154113</v>
+        <v>16350</v>
       </c>
       <c r="D40" t="n">
-        <v>2112</v>
+        <v>163</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F40" t="n">
-        <v>55077</v>
+        <v>27077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.174</v>
+        <v>0.091</v>
       </c>
       <c r="H40" t="n">
-        <v>0.191</v>
+        <v>0.171</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2</v>
+        <v>0.176</v>
       </c>
       <c r="J40" t="n">
-        <v>0.163</v>
+        <v>0.249</v>
       </c>
       <c r="K40" t="n">
-        <v>0.271</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>menominee</t>
+          <t>le sueur</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>76736</v>
+        <v>225285</v>
       </c>
       <c r="D41" t="n">
-        <v>826</v>
+        <v>1710</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F41" t="n">
-        <v>55078</v>
+        <v>27079</v>
       </c>
       <c r="G41" t="n">
-        <v>0.042</v>
+        <v>0.055</v>
       </c>
       <c r="H41" t="n">
-        <v>0.103</v>
+        <v>0.168</v>
       </c>
       <c r="I41" t="n">
-        <v>0.31</v>
+        <v>0.147</v>
       </c>
       <c r="J41" t="n">
-        <v>0.246</v>
+        <v>0.254</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>milwaukee</t>
+          <t>lincoln</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>12346505</v>
+        <v>52902</v>
       </c>
       <c r="D42" t="n">
-        <v>176417</v>
+        <v>123</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F42" t="n">
-        <v>55079</v>
+        <v>27081</v>
       </c>
       <c r="G42" t="n">
-        <v>0.053</v>
+        <v>0.11</v>
       </c>
       <c r="H42" t="n">
-        <v>0.067</v>
+        <v>0.078</v>
       </c>
       <c r="I42" t="n">
-        <v>0.119</v>
+        <v>0.203</v>
       </c>
       <c r="J42" t="n">
-        <v>0.264</v>
+        <v>0.292</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4970000000000001</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>monroe</t>
+          <t>lyon</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>380722</v>
+        <v>336395</v>
       </c>
       <c r="D43" t="n">
-        <v>2474</v>
+        <v>3031</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F43" t="n">
-        <v>55081</v>
+        <v>27083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.073</v>
+        <v>0.134</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03</v>
+        <v>0.075</v>
       </c>
       <c r="I43" t="n">
-        <v>0.154</v>
+        <v>0.242</v>
       </c>
       <c r="J43" t="n">
-        <v>0.284</v>
+        <v>0.21</v>
       </c>
       <c r="K43" t="n">
-        <v>0.46</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>oconto</t>
+          <t>mahnomen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>484968</v>
+        <v>40639</v>
       </c>
       <c r="D44" t="n">
-        <v>4472</v>
+        <v>775</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F44" t="n">
-        <v>55083</v>
+        <v>27087</v>
       </c>
       <c r="G44" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.279</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="J44" t="n">
-        <v>0.215</v>
+        <v>0.185</v>
       </c>
       <c r="K44" t="n">
-        <v>0.447</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>oneida</t>
+          <t>marshall</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>322457</v>
+        <v>65850</v>
       </c>
       <c r="D45" t="n">
-        <v>4868</v>
+        <v>1194</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F45" t="n">
-        <v>55085</v>
+        <v>27089</v>
       </c>
       <c r="G45" t="n">
-        <v>0.057</v>
+        <v>0.078</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05</v>
+        <v>0.152</v>
       </c>
       <c r="I45" t="n">
-        <v>0.155</v>
+        <v>0.221</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.234</v>
       </c>
       <c r="K45" t="n">
-        <v>0.552</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>outagamie</t>
+          <t>martin</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2147886</v>
+        <v>191436</v>
       </c>
       <c r="D46" t="n">
-        <v>18752</v>
+        <v>3889</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F46" t="n">
-        <v>55087</v>
+        <v>27091</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H46" t="n">
-        <v>0.124</v>
+        <v>0.115</v>
       </c>
       <c r="I46" t="n">
-        <v>0.135</v>
+        <v>0.134</v>
       </c>
       <c r="J46" t="n">
-        <v>0.302</v>
+        <v>0.205</v>
       </c>
       <c r="K46" t="n">
-        <v>0.353</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ozaukee</t>
+          <t>mcleod</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>807833</v>
+        <v>310268</v>
       </c>
       <c r="D47" t="n">
-        <v>8944</v>
+        <v>3254</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F47" t="n">
-        <v>55089</v>
+        <v>27085</v>
       </c>
       <c r="G47" t="n">
-        <v>0.076</v>
+        <v>0.061</v>
       </c>
       <c r="H47" t="n">
-        <v>0.113</v>
+        <v>0.176</v>
       </c>
       <c r="I47" t="n">
-        <v>0.091</v>
+        <v>0.193</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3</v>
+        <v>0.383</v>
       </c>
       <c r="K47" t="n">
-        <v>0.42</v>
+        <v>0.1860000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>pepin</t>
+          <t>meeker</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>68781</v>
+        <v>183692</v>
       </c>
       <c r="D48" t="n">
-        <v>438</v>
+        <v>2574</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F48" t="n">
-        <v>55091</v>
+        <v>27093</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0.056</v>
+        <v>0.144</v>
       </c>
       <c r="I48" t="n">
-        <v>0.198</v>
+        <v>0.094</v>
       </c>
       <c r="J48" t="n">
-        <v>0.233</v>
+        <v>0.323</v>
       </c>
       <c r="K48" t="n">
-        <v>0.443</v>
+        <v>0.3670000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>pierce</t>
+          <t>mille lacs</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>378270</v>
+        <v>200150</v>
       </c>
       <c r="D49" t="n">
-        <v>3366</v>
+        <v>4500</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F49" t="n">
-        <v>55093</v>
+        <v>27095</v>
       </c>
       <c r="G49" t="n">
-        <v>0.063</v>
+        <v>0.224</v>
       </c>
       <c r="H49" t="n">
-        <v>0.094</v>
+        <v>0.122</v>
       </c>
       <c r="I49" t="n">
-        <v>0.144</v>
+        <v>0.159</v>
       </c>
       <c r="J49" t="n">
-        <v>0.25</v>
+        <v>0.146</v>
       </c>
       <c r="K49" t="n">
-        <v>0.449</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>polk</t>
+          <t>morrison</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>306961</v>
+        <v>295462</v>
       </c>
       <c r="D50" t="n">
-        <v>2713</v>
+        <v>3837</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F50" t="n">
-        <v>55095</v>
+        <v>27097</v>
       </c>
       <c r="G50" t="n">
-        <v>0.081</v>
+        <v>0.14</v>
       </c>
       <c r="H50" t="n">
-        <v>0.113</v>
+        <v>0.126</v>
       </c>
       <c r="I50" t="n">
-        <v>0.154</v>
+        <v>0.121</v>
       </c>
       <c r="J50" t="n">
-        <v>0.253</v>
+        <v>0.24</v>
       </c>
       <c r="K50" t="n">
-        <v>0.399</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>portage</t>
+          <t>mower</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>694861</v>
+        <v>486883</v>
       </c>
       <c r="D51" t="n">
-        <v>5581</v>
+        <v>3242</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F51" t="n">
-        <v>55097</v>
+        <v>27099</v>
       </c>
       <c r="G51" t="n">
-        <v>0.157</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0.159</v>
+        <v>0.107</v>
       </c>
       <c r="I51" t="n">
-        <v>0.215</v>
+        <v>0.113</v>
       </c>
       <c r="J51" t="n">
-        <v>0.188</v>
+        <v>0.262</v>
       </c>
       <c r="K51" t="n">
-        <v>0.28</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>murray</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>106778</v>
+        <v>93668</v>
       </c>
       <c r="D52" t="n">
-        <v>524</v>
+        <v>702</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F52" t="n">
-        <v>55099</v>
+        <v>27101</v>
       </c>
       <c r="G52" t="n">
-        <v>0.059</v>
+        <v>0.131</v>
       </c>
       <c r="H52" t="n">
-        <v>0.081</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>0.079</v>
+        <v>0.224</v>
       </c>
       <c r="J52" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="K52" t="n">
-        <v>0.631</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>racine</t>
+          <t>nicollet</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2537479</v>
+        <v>250750</v>
       </c>
       <c r="D53" t="n">
-        <v>37568</v>
+        <v>5438</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F53" t="n">
-        <v>55101</v>
+        <v>27103</v>
       </c>
       <c r="G53" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="H53" t="n">
-        <v>0.067</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>0.167</v>
+        <v>0.164</v>
       </c>
       <c r="J53" t="n">
-        <v>0.193</v>
+        <v>0.296</v>
       </c>
       <c r="K53" t="n">
-        <v>0.512</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>richland</t>
+          <t>nobles</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>122965</v>
+        <v>671482</v>
       </c>
       <c r="D54" t="n">
-        <v>2060</v>
+        <v>5663</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F54" t="n">
-        <v>55103</v>
+        <v>27105</v>
       </c>
       <c r="G54" t="n">
-        <v>0.312</v>
+        <v>0.244</v>
       </c>
       <c r="H54" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="I54" t="n">
-        <v>0.055</v>
+        <v>0.18</v>
       </c>
       <c r="J54" t="n">
-        <v>0.116</v>
+        <v>0.215</v>
       </c>
       <c r="K54" t="n">
-        <v>0.443</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>norman</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1551280</v>
+        <v>45373</v>
       </c>
       <c r="D55" t="n">
-        <v>16354</v>
+        <v>731</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F55" t="n">
-        <v>55105</v>
+        <v>27107</v>
       </c>
       <c r="G55" t="n">
-        <v>0.023</v>
+        <v>0.122</v>
       </c>
       <c r="H55" t="n">
-        <v>0.139</v>
+        <v>0.154</v>
       </c>
       <c r="I55" t="n">
-        <v>0.096</v>
+        <v>0.109</v>
       </c>
       <c r="J55" t="n">
-        <v>0.277</v>
+        <v>0.1860000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>0.464</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>rusk</t>
+          <t>olmsted</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>111001</v>
+        <v>1164759</v>
       </c>
       <c r="D56" t="n">
-        <v>1219</v>
+        <v>9317</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F56" t="n">
-        <v>55107</v>
+        <v>27109</v>
       </c>
       <c r="G56" t="n">
-        <v>0.095</v>
+        <v>0.023</v>
       </c>
       <c r="H56" t="n">
-        <v>0.135</v>
+        <v>0.101</v>
       </c>
       <c r="I56" t="n">
-        <v>0.106</v>
+        <v>0.057</v>
       </c>
       <c r="J56" t="n">
-        <v>0.168</v>
+        <v>0.333</v>
       </c>
       <c r="K56" t="n">
-        <v>0.496</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sauk</t>
+          <t>otter tail</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>538660</v>
+        <v>422847</v>
       </c>
       <c r="D57" t="n">
-        <v>3578</v>
+        <v>4831</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F57" t="n">
-        <v>55111</v>
+        <v>27111</v>
       </c>
       <c r="G57" t="n">
-        <v>0.063</v>
+        <v>0.078</v>
       </c>
       <c r="H57" t="n">
-        <v>0.163</v>
+        <v>0.182</v>
       </c>
       <c r="I57" t="n">
-        <v>0.113</v>
+        <v>0.278</v>
       </c>
       <c r="J57" t="n">
-        <v>0.193</v>
+        <v>0.17</v>
       </c>
       <c r="K57" t="n">
-        <v>0.468</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sawyer</t>
+          <t>pennington</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>132754</v>
+        <v>94476</v>
       </c>
       <c r="D58" t="n">
-        <v>1208</v>
+        <v>1222</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F58" t="n">
-        <v>55113</v>
+        <v>27113</v>
       </c>
       <c r="G58" t="n">
-        <v>0.058</v>
+        <v>0.081</v>
       </c>
       <c r="H58" t="n">
-        <v>0.126</v>
+        <v>0.197</v>
       </c>
       <c r="I58" t="n">
-        <v>0.133</v>
+        <v>0.211</v>
       </c>
       <c r="J58" t="n">
-        <v>0.256</v>
+        <v>0.205</v>
       </c>
       <c r="K58" t="n">
-        <v>0.4270000000000001</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>shawano</t>
+          <t>pine</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>527306</v>
+        <v>241288</v>
       </c>
       <c r="D59" t="n">
-        <v>6743</v>
+        <v>1053</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F59" t="n">
-        <v>55115</v>
+        <v>27115</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05</v>
+        <v>0.178</v>
       </c>
       <c r="H59" t="n">
-        <v>0.121</v>
+        <v>0.143</v>
       </c>
       <c r="I59" t="n">
-        <v>0.355</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>0.188</v>
+        <v>0.242</v>
       </c>
       <c r="K59" t="n">
-        <v>0.286</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sheboygan</t>
+          <t>pipestone</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1307413</v>
+        <v>107763</v>
       </c>
       <c r="D60" t="n">
-        <v>10495</v>
+        <v>3277</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F60" t="n">
-        <v>55117</v>
+        <v>27117</v>
       </c>
       <c r="G60" t="n">
-        <v>0.128</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0.114</v>
+        <v>0.182</v>
       </c>
       <c r="I60" t="n">
-        <v>0.174</v>
+        <v>0.132</v>
       </c>
       <c r="J60" t="n">
-        <v>0.199</v>
+        <v>0.281</v>
       </c>
       <c r="K60" t="n">
-        <v>0.385</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>st. croix</t>
+          <t>polk</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>697791</v>
+        <v>323617</v>
       </c>
       <c r="D61" t="n">
-        <v>3725</v>
+        <v>4737</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F61" t="n">
-        <v>55109</v>
+        <v>27119</v>
       </c>
       <c r="G61" t="n">
-        <v>0.101</v>
+        <v>0.104</v>
       </c>
       <c r="H61" t="n">
-        <v>0.102</v>
+        <v>0.208</v>
       </c>
       <c r="I61" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.197</v>
       </c>
       <c r="J61" t="n">
-        <v>0.342</v>
+        <v>0.196</v>
       </c>
       <c r="K61" t="n">
-        <v>0.37</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>taylor</t>
+          <t>pope</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>179454</v>
+        <v>71771</v>
       </c>
       <c r="D62" t="n">
-        <v>2248</v>
+        <v>302</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F62" t="n">
-        <v>55119</v>
+        <v>27121</v>
       </c>
       <c r="G62" t="n">
-        <v>0.201</v>
+        <v>0.139</v>
       </c>
       <c r="H62" t="n">
-        <v>0.165</v>
+        <v>0.147</v>
       </c>
       <c r="I62" t="n">
-        <v>0.09</v>
+        <v>0.103</v>
       </c>
       <c r="J62" t="n">
-        <v>0.12</v>
+        <v>0.2160000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>0.424</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>trempealeau</t>
+          <t>ramsey</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>346176</v>
+        <v>4719121</v>
       </c>
       <c r="D63" t="n">
-        <v>2777</v>
+        <v>107820</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F63" t="n">
-        <v>55121</v>
+        <v>27123</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02</v>
+        <v>0.044</v>
       </c>
       <c r="H63" t="n">
-        <v>0.126</v>
+        <v>0.046</v>
       </c>
       <c r="I63" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>0.381</v>
+        <v>0.259</v>
       </c>
       <c r="K63" t="n">
-        <v>0.387</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>vernon</t>
+          <t>red lake</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>165513</v>
+        <v>30907</v>
       </c>
       <c r="D64" t="n">
-        <v>2315</v>
+        <v>407</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F64" t="n">
-        <v>55123</v>
+        <v>27125</v>
       </c>
       <c r="G64" t="n">
-        <v>0.157</v>
+        <v>0.095</v>
       </c>
       <c r="H64" t="n">
-        <v>0.052</v>
+        <v>0.241</v>
       </c>
       <c r="I64" t="n">
-        <v>0.093</v>
+        <v>0.194</v>
       </c>
       <c r="J64" t="n">
-        <v>0.244</v>
+        <v>0.184</v>
       </c>
       <c r="K64" t="n">
-        <v>0.454</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>vilas</t>
+          <t>redwood</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>181261</v>
+        <v>128248</v>
       </c>
       <c r="D65" t="n">
-        <v>2381</v>
+        <v>2647</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F65" t="n">
-        <v>55125</v>
+        <v>27127</v>
       </c>
       <c r="G65" t="n">
-        <v>0.051</v>
+        <v>0.081</v>
       </c>
       <c r="H65" t="n">
-        <v>0.047</v>
+        <v>0.123</v>
       </c>
       <c r="I65" t="n">
-        <v>0.138</v>
+        <v>0.248</v>
       </c>
       <c r="J65" t="n">
-        <v>0.231</v>
+        <v>0.255</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5329999999999999</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>walworth</t>
+          <t>renville</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1145154</v>
+        <v>126055</v>
       </c>
       <c r="D66" t="n">
-        <v>13561</v>
+        <v>4053</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F66" t="n">
-        <v>55127</v>
+        <v>27129</v>
       </c>
       <c r="G66" t="n">
-        <v>0.116</v>
+        <v>0.05</v>
       </c>
       <c r="H66" t="n">
-        <v>0.146</v>
+        <v>0.136</v>
       </c>
       <c r="I66" t="n">
-        <v>0.137</v>
+        <v>0.193</v>
       </c>
       <c r="J66" t="n">
-        <v>0.191</v>
+        <v>0.374</v>
       </c>
       <c r="K66" t="n">
-        <v>0.41</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>washburn</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>108063</v>
+        <v>677855</v>
       </c>
       <c r="D67" t="n">
-        <v>1206</v>
+        <v>6341</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F67" t="n">
-        <v>55129</v>
+        <v>27131</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0.168</v>
+        <v>0.038</v>
       </c>
       <c r="I67" t="n">
         <v>0.117</v>
       </c>
       <c r="J67" t="n">
-        <v>0.243</v>
+        <v>0.301</v>
       </c>
       <c r="K67" t="n">
-        <v>0.39</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>washington</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1475480</v>
+        <v>111286</v>
       </c>
       <c r="D68" t="n">
-        <v>14013</v>
+        <v>1128</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F68" t="n">
-        <v>55131</v>
+        <v>27133</v>
       </c>
       <c r="G68" t="n">
-        <v>0.031</v>
+        <v>0.095</v>
       </c>
       <c r="H68" t="n">
-        <v>0.142</v>
+        <v>0.22</v>
       </c>
       <c r="I68" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="J68" t="n">
-        <v>0.298</v>
+        <v>0.247</v>
       </c>
       <c r="K68" t="n">
-        <v>0.309</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>waukesha</t>
+          <t>roseau</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4271670</v>
+        <v>152442</v>
       </c>
       <c r="D69" t="n">
-        <v>44682</v>
+        <v>1070</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F69" t="n">
-        <v>55133</v>
+        <v>27135</v>
       </c>
       <c r="G69" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.077</v>
       </c>
       <c r="H69" t="n">
-        <v>0.165</v>
+        <v>0.151</v>
       </c>
       <c r="I69" t="n">
-        <v>0.145</v>
+        <v>0.211</v>
       </c>
       <c r="J69" t="n">
-        <v>0.258</v>
+        <v>0.234</v>
       </c>
       <c r="K69" t="n">
-        <v>0.361</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>waupaca</t>
+          <t>scott</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>591494</v>
+        <v>1285801</v>
       </c>
       <c r="D70" t="n">
-        <v>15718</v>
+        <v>10860</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F70" t="n">
-        <v>55135</v>
+        <v>27139</v>
       </c>
       <c r="G70" t="n">
-        <v>0.076</v>
+        <v>0.021</v>
       </c>
       <c r="H70" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.057</v>
       </c>
       <c r="I70" t="n">
-        <v>0.206</v>
+        <v>0.12</v>
       </c>
       <c r="J70" t="n">
-        <v>0.143</v>
+        <v>0.319</v>
       </c>
       <c r="K70" t="n">
-        <v>0.506</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>waushara</t>
+          <t>sherburne</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>241796</v>
+        <v>818006</v>
       </c>
       <c r="D71" t="n">
-        <v>1922</v>
+        <v>6975</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F71" t="n">
-        <v>55137</v>
+        <v>27141</v>
       </c>
       <c r="G71" t="n">
-        <v>0.109</v>
+        <v>0.064</v>
       </c>
       <c r="H71" t="n">
-        <v>0.147</v>
+        <v>0.175</v>
       </c>
       <c r="I71" t="n">
-        <v>0.202</v>
+        <v>0.175</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.239</v>
       </c>
       <c r="K71" t="n">
-        <v>0.356</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>winnebago</t>
+          <t>sibley</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2046345</v>
+        <v>109647</v>
       </c>
       <c r="D72" t="n">
-        <v>18889</v>
+        <v>882</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F72" t="n">
-        <v>55139</v>
+        <v>27143</v>
       </c>
       <c r="G72" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H72" t="n">
-        <v>0.194</v>
+        <v>0.175</v>
       </c>
       <c r="I72" t="n">
-        <v>0.126</v>
+        <v>0.172</v>
       </c>
       <c r="J72" t="n">
-        <v>0.156</v>
+        <v>0.38</v>
       </c>
       <c r="K72" t="n">
-        <v>0.45</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>wood</t>
+          <t>st. louis</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>minnesota</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>628458</v>
+        <v>1266440</v>
       </c>
       <c r="D73" t="n">
-        <v>5638</v>
+        <v>22946</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F73" t="n">
-        <v>55141</v>
+        <v>27137</v>
       </c>
       <c r="G73" t="n">
-        <v>0.131</v>
+        <v>0.095</v>
       </c>
       <c r="H73" t="n">
-        <v>0.177</v>
+        <v>0.052</v>
       </c>
       <c r="I73" t="n">
-        <v>0.215</v>
+        <v>0.098</v>
       </c>
       <c r="J73" t="n">
-        <v>0.181</v>
+        <v>0.297</v>
       </c>
       <c r="K73" t="n">
-        <v>0.296</v>
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>stearns</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2122487</v>
+      </c>
+      <c r="D74" t="n">
+        <v>18755</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F74" t="n">
+        <v>27145</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.415</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>steele</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>295904</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F75" t="n">
+        <v>27147</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>stevens</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>68212</v>
+      </c>
+      <c r="D76" t="n">
+        <v>603</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F76" t="n">
+        <v>27149</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>swift</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>83455</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1433</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F77" t="n">
+        <v>27151</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>todd</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>283205</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2548</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F78" t="n">
+        <v>27153</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>traverse</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>23213</v>
+      </c>
+      <c r="D79" t="n">
+        <v>199</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F79" t="n">
+        <v>27155</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.395</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>wabasha</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>156936</v>
+      </c>
+      <c r="D80" t="n">
+        <v>202</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F80" t="n">
+        <v>27157</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.4270000000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>wadena</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>108364</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1183</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F81" t="n">
+        <v>27159</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.3670000000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>waseca</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>216904</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1850</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F82" t="n">
+        <v>27161</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>washington</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2125666</v>
+      </c>
+      <c r="D83" t="n">
+        <v>25665</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F83" t="n">
+        <v>27163</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>watonwan</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>153682</v>
+      </c>
+      <c r="D84" t="n">
+        <v>906</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F84" t="n">
+        <v>27165</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>wilkin</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>59116</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1323</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F85" t="n">
+        <v>27167</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>winona</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>410204</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7131</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F86" t="n">
+        <v>27169</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>wright</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1142184</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8356</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F87" t="n">
+        <v>27171</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>yellow medicine</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>minnesota</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>94901</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1531</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F88" t="n">
+        <v>27173</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.326</v>
       </c>
     </row>
   </sheetData>
